--- a/doc/工具柜变量地址.xlsx
+++ b/doc/工具柜变量地址.xlsx
@@ -887,10 +887,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,14 +1191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1373,7 +1373,7 @@
       <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       <c r="F12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       <c r="F14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       <c r="F18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="F19" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       <c r="F20" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       <c r="F21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="F22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="F23" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="F24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="F25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="F26" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>174</v>
       </c>
     </row>
